--- a/database/AN_ep/expdata/2005.xlsx
+++ b/database/AN_ep/expdata/2005.xlsx
@@ -138,16 +138,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -175,7 +171,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -214,18 +210,18 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
@@ -248,16 +244,16 @@
       <c r="A3" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="n">
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
@@ -280,16 +276,16 @@
       <c r="A4" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="n">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
@@ -312,16 +308,16 @@
       <c r="A5" s="1" t="n">
         <v>0.15</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="n">
+      <c r="B5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
@@ -344,16 +340,16 @@
       <c r="A6" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
+      <c r="B6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="n">
@@ -376,16 +372,16 @@
       <c r="A7" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="n">
+      <c r="B7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="n">
@@ -408,16 +404,16 @@
       <c r="A8" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="n">
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="n">
@@ -440,16 +436,16 @@
       <c r="A9" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="n">
+      <c r="B9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="n">
@@ -472,16 +468,16 @@
       <c r="A10" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="n">
+      <c r="B10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="n">
@@ -504,16 +500,16 @@
       <c r="A11" s="1" t="n">
         <v>0.45</v>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="n">
+      <c r="B11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
@@ -536,16 +532,16 @@
       <c r="A12" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="B12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="n">
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="n">
@@ -568,16 +564,16 @@
       <c r="A13" s="1" t="n">
         <v>0.55</v>
       </c>
-      <c r="B13" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="n">
+      <c r="B13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="n">
@@ -600,16 +596,16 @@
       <c r="A14" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="B14" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="n">
+      <c r="B14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="1" t="n">
@@ -632,16 +628,16 @@
       <c r="A15" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="B15" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="n">
+      <c r="B15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="1" t="n">
@@ -664,16 +660,16 @@
       <c r="A16" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="B16" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="n">
+      <c r="B16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="1" t="n">
@@ -693,7 +689,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="3"/>
+      <c r="C17" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/database/AN_ep/expdata/2005.xlsx
+++ b/database/AN_ep/expdata/2005.xlsx
@@ -138,7 +138,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -148,6 +148,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -171,7 +175,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -215,14 +219,14 @@
       <c r="B2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
+      <c r="C2" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0.001</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>17.3</v>
@@ -247,14 +251,14 @@
       <c r="B3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
+      <c r="C3" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.001</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>17.3</v>
@@ -279,14 +283,14 @@
       <c r="B4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
+      <c r="C4" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.001</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>17.3</v>
@@ -311,14 +315,14 @@
       <c r="B5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
+      <c r="C5" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0.001</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>17.3</v>
@@ -343,14 +347,14 @@
       <c r="B6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
+      <c r="C6" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0.001</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>17.3</v>
@@ -375,14 +379,14 @@
       <c r="B7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
+      <c r="C7" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.001</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>17.3</v>
@@ -407,14 +411,14 @@
       <c r="B8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
+      <c r="C8" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.001</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>17.3</v>
@@ -439,14 +443,14 @@
       <c r="B9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
+      <c r="C9" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.001</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>17.3</v>
@@ -471,14 +475,14 @@
       <c r="B10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
+      <c r="C10" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.001</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>17.3</v>
@@ -503,14 +507,14 @@
       <c r="B11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
+      <c r="C11" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.001</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>17.3</v>
@@ -535,14 +539,14 @@
       <c r="B12" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
+      <c r="C12" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.001</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>17.3</v>
@@ -567,14 +571,14 @@
       <c r="B13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
+      <c r="C13" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0.001</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>17.3</v>
@@ -599,14 +603,14 @@
       <c r="B14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
+      <c r="C14" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0.001</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>17.3</v>
@@ -631,14 +635,14 @@
       <c r="B15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>0</v>
+      <c r="C15" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0.001</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>17.3</v>
@@ -663,14 +667,14 @@
       <c r="B16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>0</v>
+      <c r="C16" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0.001</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>17.3</v>
